--- a/PLANES PROYECTO FINAL.xlsx
+++ b/PLANES PROYECTO FINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ELITEBOOK\OneDrive\Documentos\ADMON P 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ELITEBOOK\OneDrive\Documentos\ProyectoFinalAP1Chavez\ProyectoFinalAP1Chavez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C98B065-2889-4371-8B93-1FED86E013C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321F700-A0B6-408B-822F-D91932AAC209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="7" xr2:uid="{DD027FD9-CBF6-43AA-A57F-46EB109528E2}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="398">
   <si>
     <t>PLAN DE GESTIÓN DE LOS INTERESADOS</t>
   </si>
@@ -610,9 +610,6 @@
   </si>
   <si>
     <t>MAXIMO</t>
-  </si>
-  <si>
-    <t>$28.894,79</t>
   </si>
   <si>
     <t>$57.789,58</t>
@@ -1238,6 +1235,9 @@
   </si>
   <si>
     <t>EVALUACION TOTAL DE SEGURIDAD</t>
+  </si>
+  <si>
+    <t>$23.216,67</t>
   </si>
 </sst>
 </file>
@@ -2153,189 +2153,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2358,6 +2175,189 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2886,239 +2886,229 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="86"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="82"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="58" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78" t="s">
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="75" t="s">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="58" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="58" t="s">
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="60"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="79"/>
       <c r="Q7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="58" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="61" t="s">
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="60"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="79"/>
       <c r="Q8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="58" t="s">
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="58" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="61" t="s">
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="79"/>
       <c r="Q9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="58" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="58" t="s">
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="61" t="s">
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
       <c r="Q10" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C2:Q3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="N7:P7"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J7:M7"/>
@@ -3127,10 +3117,20 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="C2:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3140,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10589D6-4C8E-4635-986D-51A5AE2B3E38}">
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K5"/>
+    <sheetView topLeftCell="A7" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,59 +3150,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="91">
+      <c r="N3" s="95"/>
+      <c r="O3" s="100">
         <f ca="1">NOW()</f>
-        <v>45797.706315046293</v>
-      </c>
-      <c r="P3" s="88"/>
+        <v>45800.762301388888</v>
+      </c>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -3210,16 +3210,16 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -3244,337 +3244,337 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
       <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86" t="s">
+      <c r="L7" s="97"/>
+      <c r="M7" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
       <c r="P7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83" t="s">
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="83" t="s">
+      <c r="K8" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83" t="s">
+      <c r="L8" s="101"/>
+      <c r="M8" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
       <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83" t="s">
+      <c r="L9" s="101"/>
+      <c r="M9" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83" t="s">
+      <c r="L10" s="101"/>
+      <c r="M10" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83" t="s">
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83" t="s">
+      <c r="L11" s="101"/>
+      <c r="M11" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83" t="s">
+      <c r="C12" s="101"/>
+      <c r="D12" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83" t="s">
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83" t="s">
+      <c r="L12" s="101"/>
+      <c r="M12" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83" t="s">
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="83" t="s">
+      <c r="K13" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83" t="s">
+      <c r="L13" s="101"/>
+      <c r="M13" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83" t="s">
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83" t="s">
+      <c r="L14" s="101"/>
+      <c r="M14" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="79" t="s">
+      <c r="C15" s="104"/>
+      <c r="D15" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="79" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="82" t="s">
+      <c r="K15" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82" t="s">
+      <c r="L15" s="105"/>
+      <c r="M15" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
       <c r="P15" s="9" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
     <mergeCell ref="B4:K5"/>
     <mergeCell ref="B2:K3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3584,7 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757F3DA-2150-476D-8D6D-DEA5E5BB0A1E}">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3625,14 +3625,14 @@
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="17"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -3647,14 +3647,14 @@
       <c r="S2" s="16"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
       <c r="H3" s="17"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -4358,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78253FF4-8F7F-422E-864D-1C9136AA56E9}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A23" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,7 +4386,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="29">
         <f ca="1">NOW()</f>
-        <v>45797.706315046293</v>
+        <v>45800.762301388888</v>
       </c>
       <c r="I2" s="28"/>
     </row>
@@ -4425,15 +4425,15 @@
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113"/>
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" s="31">
         <v>500</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I6" s="28"/>
     </row>
@@ -4517,21 +4517,21 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="129">
+      <c r="H9" s="58">
         <v>800</v>
       </c>
       <c r="I9" s="28"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="2:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="31">
         <v>10000</v>
@@ -4554,7 +4554,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I11" s="28"/>
     </row>
@@ -4631,15 +4631,15 @@
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="113"/>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4705,15 +4705,15 @@
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="31">
         <v>450</v>
@@ -4829,15 +4829,15 @@
       <c r="I25" s="28"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="113"/>
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4940,51 +4940,51 @@
         <v>188</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="D33" s="31">
         <v>3</v>
       </c>
       <c r="E33" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="G33" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="H33" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="I33" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="D34" s="31">
         <v>2</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="H34" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="I34" s="31" t="s">
         <v>198</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4996,6 +4996,7 @@
     <mergeCell ref="B26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5003,7 +5004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8356F6E8-7930-48F9-AB4D-E19A7D9FCB27}">
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="73" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -5018,10 +5019,10 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>203</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>204</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -5034,10 +5035,10 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>205</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>206</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5050,11 +5051,11 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="40">
         <f ca="1">NOW()</f>
-        <v>45797.706315046293</v>
+        <v>45800.762301388888</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -5067,17 +5068,17 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="125" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
+      <c r="D5" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
@@ -5095,7 +5096,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5108,219 +5109,219 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="126" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="126" t="s">
+      <c r="B8" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="121"/>
+      <c r="D8" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="127"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="121"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="116"/>
+      <c r="B15" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
+      <c r="B16" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
+      <c r="B17" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="B18" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
+      <c r="B19" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="109" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="B21" s="134" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5330,34 +5331,34 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="133"/>
+      <c r="D22" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="41" t="s">
+      <c r="E22" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="F22" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="G22" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="H22" s="41" t="s">
         <v>240</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>241</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="106"/>
+      <c r="B23" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="136"/>
       <c r="D23" s="44">
         <v>2</v>
       </c>
@@ -5369,22 +5370,22 @@
         <v>6</v>
       </c>
       <c r="G23" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="I23" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="106"/>
+      <c r="B24" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="136"/>
       <c r="D24" s="44">
         <v>3</v>
       </c>
@@ -5396,22 +5397,22 @@
         <v>12</v>
       </c>
       <c r="G24" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="I24" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="105" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="106"/>
+      <c r="B25" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="136"/>
       <c r="D25" s="44">
         <v>3</v>
       </c>
@@ -5423,24 +5424,24 @@
         <v>12</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H25" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="106"/>
+      <c r="B26" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="136"/>
       <c r="D26" s="44">
         <v>4</v>
       </c>
@@ -5452,24 +5453,24 @@
         <v>20</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="106"/>
+      <c r="B27" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="136"/>
       <c r="D27" s="44">
         <v>5</v>
       </c>
@@ -5481,22 +5482,22 @@
         <v>25</v>
       </c>
       <c r="G27" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="H27" s="44" t="s">
         <v>252</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>253</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="C28" s="103"/>
+      <c r="B28" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="137"/>
       <c r="D28" s="45">
         <v>3</v>
       </c>
@@ -5508,20 +5509,20 @@
         <v>6</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="103"/>
+      <c r="B29" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="137"/>
       <c r="D29" s="45">
         <v>2</v>
       </c>
@@ -5533,22 +5534,22 @@
         <v>4</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="112"/>
+      <c r="B30" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="138"/>
       <c r="D30" s="45">
         <v>2</v>
       </c>
@@ -5560,22 +5561,22 @@
         <v>4</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I30" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="108"/>
+      <c r="B31" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="135"/>
       <c r="D31" s="50">
         <v>2</v>
       </c>
@@ -5587,13 +5588,13 @@
         <v>6</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I31" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J31" s="48">
         <f>COUNTIF(G23:G34,"BAJA")</f>
@@ -5605,10 +5606,10 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="108"/>
+      <c r="B32" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="135"/>
       <c r="D32" s="50">
         <v>2</v>
       </c>
@@ -5620,13 +5621,13 @@
         <v>8</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I32" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J32" s="48">
         <f>COUNTIF(G23:G34,"MEDIA")</f>
@@ -5638,10 +5639,10 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="C33" s="108"/>
+      <c r="B33" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="135"/>
       <c r="D33" s="50">
         <v>2</v>
       </c>
@@ -5653,10 +5654,10 @@
         <v>8</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I33" s="47"/>
       <c r="J33" s="48">
@@ -5669,10 +5670,10 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="108"/>
+      <c r="B34" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="135"/>
       <c r="D34" s="50">
         <v>1</v>
       </c>
@@ -5684,10 +5685,10 @@
         <v>3</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="48">
@@ -5712,10 +5713,10 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="109" t="s">
-        <v>262</v>
-      </c>
-      <c r="C36" s="109"/>
+      <c r="B36" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="134"/>
       <c r="D36" s="3">
         <f>SUM(D23:D34)</f>
         <v>31</v>
@@ -5735,276 +5736,276 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="110" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
+      <c r="B37" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="133"/>
+      <c r="D37" s="139" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
       <c r="G37" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="41" t="s">
         <v>263</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>264</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
+      <c r="B38" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="136"/>
+      <c r="D38" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
       <c r="G38" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="44" t="s">
         <v>265</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>266</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="107" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
+      <c r="B39" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="136"/>
+      <c r="D39" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
       <c r="G39" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="H39" s="44" t="s">
-        <v>269</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="105" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
+      <c r="B40" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="136"/>
+      <c r="D40" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
       <c r="G40" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="H40" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="H40" s="44" t="s">
-        <v>272</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="105" t="s">
+      <c r="B41" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="136"/>
+      <c r="D41" s="140" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="C42" s="136"/>
+      <c r="D42" s="140" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="44" t="s">
-        <v>271</v>
-      </c>
       <c r="H42" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="104" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
+      <c r="B43" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="137"/>
+      <c r="D43" s="141" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
       <c r="G43" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H43" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="137"/>
+      <c r="D44" s="141" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104" t="s">
-        <v>256</v>
-      </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="H44" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104" t="s">
-        <v>257</v>
-      </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
+      <c r="B45" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="137"/>
+      <c r="D45" s="141" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
       <c r="G45" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101" t="s">
-        <v>258</v>
-      </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
+      <c r="B46" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="142"/>
+      <c r="D46" s="143" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
       <c r="G46" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
+      <c r="B47" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="142"/>
+      <c r="D47" s="143" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
       <c r="G47" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48" s="100"/>
-      <c r="D48" s="101" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
+      <c r="B48" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="142"/>
+      <c r="D48" s="143" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
       <c r="G48" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
+      <c r="B49" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="142"/>
+      <c r="D49" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
       <c r="G49" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -6026,19 +6027,45 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
@@ -6055,45 +6082,19 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J25:J27 G23:G34" xr:uid="{309A7C54-2FD9-47FC-89E1-830C519E4455}">
@@ -6130,7 +6131,7 @@
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6144,10 +6145,10 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -6160,10 +6161,10 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>206</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -6176,11 +6177,11 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="40">
         <f ca="1">NOW()</f>
-        <v>45797.706315046293</v>
+        <v>45800.762301388888</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -6193,19 +6194,19 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
+      <c r="E6" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -6223,7 +6224,7 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -6248,58 +6249,58 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="F10" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="G10" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="H10" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="I10" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="J10" s="47" t="s">
         <v>289</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>290</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="F11" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="54" t="s">
         <v>297</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>298</v>
       </c>
       <c r="J11" s="54">
         <v>60000</v>
@@ -6308,28 +6309,28 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="55" t="s">
         <v>302</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>303</v>
       </c>
       <c r="J12" s="55">
         <v>120000</v>
@@ -6338,28 +6339,28 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="56" t="s">
         <v>308</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>309</v>
       </c>
       <c r="J13" s="56">
         <v>60000</v>
@@ -6368,28 +6369,28 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="E14" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="H14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>297</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>298</v>
       </c>
       <c r="J14" s="54">
         <v>60000</v>
@@ -6398,28 +6399,28 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="G15" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="55" t="s">
         <v>302</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>303</v>
       </c>
       <c r="J15" s="55">
         <v>120000</v>
@@ -6428,28 +6429,28 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="54" t="s">
         <v>318</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>319</v>
       </c>
       <c r="J16" s="54">
         <v>36000</v>
@@ -6458,28 +6459,28 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" s="54" t="s">
         <v>297</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>298</v>
       </c>
       <c r="J17" s="54">
         <v>60000</v>
@@ -6488,28 +6489,28 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="I18" s="56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J18" s="56">
         <v>60000</v>
@@ -6518,28 +6519,28 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E19" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="G19" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="55" t="s">
         <v>302</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>303</v>
       </c>
       <c r="J19" s="55">
         <v>120000</v>
@@ -6548,28 +6549,28 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="I20" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J20" s="54">
         <v>36000</v>
@@ -6603,7 +6604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C0134B-107A-4DB7-AF68-C4C188D4E712}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -6618,8 +6619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085CF852-3918-45F7-9778-5DA30F07812E}">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6632,8 +6633,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="130" t="s">
-        <v>335</v>
+      <c r="B2" s="59" t="s">
+        <v>334</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6648,27 +6649,27 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="132" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="133">
+      <c r="C5" s="62">
         <f ca="1">NOW()</f>
-        <v>45797.706315046293</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
+        <v>45800.762301388888</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -6679,7 +6680,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6688,7 +6689,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6703,431 +6704,467 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="D10" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="E10" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="F10" s="63" t="s">
         <v>344</v>
-      </c>
-      <c r="F10" s="134" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="D11" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="E11" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="E11" s="135" t="s">
+      <c r="F11" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="135" t="s">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="135"/>
-      <c r="C12" s="135" t="s">
+      <c r="D12" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="D12" s="135" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" s="135" t="s">
+      <c r="F12" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="F12" s="135" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="135"/>
-      <c r="C13" s="135" t="s">
+      <c r="D13" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="E13" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="F13" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="F13" s="135" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="135" t="s">
+      <c r="F14" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="F14" s="135" t="s">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135" t="s">
+      <c r="E15" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="E15" s="135" t="s">
+      <c r="F15" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="135" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135" t="s">
+      <c r="F16" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="F16" s="135" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135" t="s">
+      <c r="F17" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="F17" s="135" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135" t="s">
+      <c r="F18" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="F18" s="135" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135" t="s">
+      <c r="F19" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="F19" s="135" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135" t="s">
-        <v>364</v>
-      </c>
-      <c r="F20" s="135" t="s">
-        <v>350</v>
+      <c r="F20" s="64" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="D21" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="E21" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="F21" s="63" t="s">
         <v>344</v>
-      </c>
-      <c r="F21" s="134" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="D22" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="135" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="135" t="s">
+      <c r="F22" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="F22" s="135"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135" t="s">
+      <c r="F23" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="F23" s="135"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="135"/>
-      <c r="C24" s="135" t="s">
+      <c r="D24" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="D24" s="135" t="s">
-        <v>358</v>
-      </c>
-      <c r="E24" s="135" t="s">
+      <c r="F24" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="F24" s="135"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135" t="s">
+      <c r="F25" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="F25" s="135"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="135"/>
-      <c r="C26" s="135" t="s">
+      <c r="D26" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="135" t="s">
-        <v>358</v>
-      </c>
-      <c r="E26" s="135" t="s">
-        <v>373</v>
-      </c>
-      <c r="F26" s="135"/>
+      <c r="F26" s="64" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="D27" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D27" s="134" t="s">
+      <c r="E27" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="E27" s="134" t="s">
+      <c r="F27" s="63" t="s">
         <v>344</v>
-      </c>
-      <c r="F27" s="134" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="D28" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="D28" s="135" t="s">
+      <c r="E28" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="E28" s="135" t="s">
+      <c r="F28" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="F28" s="135"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135" t="s">
+      <c r="F29" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="F29" s="135"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135" t="s">
+      <c r="F30" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="F30" s="135"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135" t="s">
+      <c r="F31" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="135"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135" t="s">
+      <c r="F32" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="135"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135" t="s">
+      <c r="F33" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="F33" s="135"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135" t="s">
-        <v>383</v>
-      </c>
-      <c r="F34" s="135"/>
+      <c r="F34" s="64" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="D35" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D35" s="134" t="s">
+      <c r="E35" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="E35" s="134" t="s">
+      <c r="F35" s="63" t="s">
         <v>344</v>
-      </c>
-      <c r="F35" s="134" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="D36" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="E36" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="F36" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="F36" s="135"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="135"/>
-      <c r="C37" s="135" t="s">
+      <c r="D37" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="D37" s="135" t="s">
-        <v>386</v>
-      </c>
-      <c r="E37" s="135" t="s">
+      <c r="F37" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="F37" s="135"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135" t="s">
+      <c r="F38" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="F38" s="135"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135" t="s">
+      <c r="F39" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="F39" s="135"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135" t="s">
+      <c r="F40" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="F40" s="135"/>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="135"/>
-      <c r="C41" s="135" t="s">
+      <c r="D41" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="D41" s="135" t="s">
-        <v>386</v>
-      </c>
-      <c r="E41" s="135" t="s">
-        <v>394</v>
-      </c>
-      <c r="F41" s="135"/>
-    </row>
-    <row r="42" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="137" t="s">
-        <v>395</v>
-      </c>
-      <c r="F42" s="138">
+      <c r="D42" s="65"/>
+      <c r="E42" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="F42" s="67">
         <f>COUNTIF(F11:F41,"SI")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="140" t="s">
-        <v>396</v>
-      </c>
-      <c r="F43" s="141">
+      <c r="D43" s="68"/>
+      <c r="E43" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="F43" s="70">
         <f>COUNTIF(F11:F41,"NO")</f>
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="143" t="s">
-        <v>397</v>
-      </c>
-      <c r="F44" s="142">
+      <c r="D44" s="71"/>
+      <c r="E44" s="72" t="s">
+        <v>396</v>
+      </c>
+      <c r="F44" s="71">
         <f>(F42/17)*10</f>
-        <v>4.117647058823529</v>
+        <v>5.882352941176471</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">

--- a/PLANES PROYECTO FINAL.xlsx
+++ b/PLANES PROYECTO FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ELITEBOOK\OneDrive\Documentos\ProyectoFinalAP1Chavez\ProyectoFinalAP1Chavez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321F700-A0B6-408B-822F-D91932AAC209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0957196E-4C22-4881-8A4C-683607D90563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="7" xr2:uid="{DD027FD9-CBF6-43AA-A57F-46EB109528E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{DD027FD9-CBF6-43AA-A57F-46EB109528E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de los interesados" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Plan de Recuperacion Desastres" sheetId="6" r:id="rId6"/>
     <sheet name="Tablas indicadoras" sheetId="7" r:id="rId7"/>
     <sheet name="Experiencia Visual" sheetId="8" r:id="rId8"/>
+    <sheet name="Analisis FODA" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="400">
   <si>
     <t>PLAN DE GESTIÓN DE LOS INTERESADOS</t>
   </si>
@@ -1238,6 +1239,12 @@
   </si>
   <si>
     <t>$23.216,67</t>
+  </si>
+  <si>
+    <t>CONCLUSIÓNES FINALES FODA</t>
+  </si>
+  <si>
+    <t>Tras realizar un análisis FODA exhaustivo del software, se han identificado una serie de factores internos y externos que influyen en su desarrollo, implementación y posicionamiento en el mercado. A continuación se presenta un resumen de las principales conclusiones:</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1259,7 @@
     <numFmt numFmtId="167" formatCode="d/m/yy&quot; &quot;hh&quot;:&quot;mm"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,8 +1535,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,8 +1630,14 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E0457"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2018,13 +2046,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2358,6 +2547,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2557,6 +2791,432 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19438</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>58316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217519</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>172617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814D02F8-2B41-DC57-4E6B-5A570B7CA30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4840254" y="1827245"/>
+          <a:ext cx="11142112" cy="9056137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466531</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4470919" cy="800219"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B389E25-6273-3294-F2C5-20E8D666C6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5287347" y="2935256"/>
+          <a:ext cx="4470919" cy="800219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Contenido</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> relevante: El curso  cubre temas fundamentales como planeacion, estimacion, gestion de riesgos y seguimiento.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>249594</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2899488" cy="1480456"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B29A7A7-D640-402D-8FA4-8A713D360362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5070410" y="4273422"/>
+          <a:ext cx="2899488" cy="1480456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Enfoque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> practico: Trabajamos con herramientas com GitHub y Jira Software, lo que nos prepara para el mundo laboral</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2754086</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>188169</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2899488" cy="1480456"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5673100E-ADC0-4771-84D0-9F36030449B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12395719" y="3123424"/>
+          <a:ext cx="2899488" cy="1480456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Mejora</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> continua: Podemos actualizanos con las nuevas tecnologias </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476639</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2866831" cy="2069839"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C7D37C-19FF-4651-AC3F-FAD6B35EC193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297455" y="7202456"/>
+          <a:ext cx="2866831" cy="2069839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Mas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> practica: Faltan algunos temas por dominar a la hora de realizar la planeacion  y organizacion, meterse bien en el tipo de administrador para realizar u organizar un proyecto  </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291581</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>58316</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2866831" cy="2069839"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B36488-1D2B-4774-B1FA-C43489F01464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12810152" y="7270102"/>
+          <a:ext cx="2866831" cy="2069839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Cambios</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> tecnologicos: Constantemente las tecnologias y herrmiantas se van actualizando lo que hace que los proyectos se puedan volver obsoletos</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3186,7 +3846,7 @@
       <c r="N3" s="95"/>
       <c r="O3" s="100">
         <f ca="1">NOW()</f>
-        <v>45800.762301388888</v>
+        <v>45800.767523726849</v>
       </c>
       <c r="P3" s="95"/>
     </row>
@@ -4386,7 +5046,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="29">
         <f ca="1">NOW()</f>
-        <v>45800.762301388888</v>
+        <v>45800.767523726849</v>
       </c>
       <c r="I2" s="28"/>
     </row>
@@ -5055,7 +5715,7 @@
       </c>
       <c r="C4" s="40">
         <f ca="1">NOW()</f>
-        <v>45800.762301388888</v>
+        <v>45800.767523726849</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -6181,7 +6841,7 @@
       </c>
       <c r="D5" s="40">
         <f ca="1">NOW()</f>
-        <v>45800.762301388888</v>
+        <v>45800.767523726849</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -6619,7 +7279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085CF852-3918-45F7-9778-5DA30F07812E}">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6665,7 +7325,7 @@
       </c>
       <c r="C5" s="62">
         <f ca="1">NOW()</f>
-        <v>45800.762301388888</v>
+        <v>45800.767523726849</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
@@ -7184,4 +7844,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD4EFAA-419D-4409-BDC4-283AF7FEAFBB}">
+  <dimension ref="I1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="43.28515625" customWidth="1"/>
+    <col min="18" max="18" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I2" s="144" t="s">
+        <v>398</v>
+      </c>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="146"/>
+    </row>
+    <row r="3" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="147"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149"/>
+    </row>
+    <row r="4" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="150"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="152"/>
+    </row>
+    <row r="5" spans="9:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="153" t="s">
+        <v>399</v>
+      </c>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="155"/>
+    </row>
+    <row r="6" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="158"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I5:R6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>